--- a/data/hyper-parameters.xlsx
+++ b/data/hyper-parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1Qu7UOLxDtaHg6JbrDo0q-3e4ePr807CH\graph_based_recommendation_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1Qu7UOLxDtaHg6JbrDo0q-3e4ePr807CH\graph_based_recommendation_system\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6277BD43-190C-477D-BBF8-7AB52513F290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39E9529-842F-4076-BD4B-790DD6A6D6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>number of users: 13176</t>
   </si>
@@ -180,15 +180,40 @@
   <si>
     <t>addtion of a dense layer</t>
   </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>regularization</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
+  </si>
+  <si>
+    <t>Adamax</t>
+  </si>
+  <si>
+    <t>change optimizer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +242,12 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -238,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -369,17 +400,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,28 +440,67 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -692,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -706,10 +795,11 @@
     <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="9" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -725,17 +815,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -743,395 +833,581 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="I7" s="6" t="s">
+    <row r="7" spans="1:14">
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="N8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickTop="1">
-      <c r="A9" s="7">
+    <row r="9" spans="1:14" ht="15" thickTop="1">
+      <c r="A9" s="2">
         <v>20</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="3">
         <v>200</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="4">
         <v>0.01</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="5">
         <v>1.7598</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="6">
         <v>1.3266</v>
       </c>
-      <c r="K9" s="13">
+      <c r="L9" s="7">
         <v>1.0098</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="7">
+    <row r="10" spans="1:14">
+      <c r="A10" s="2">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="3">
         <v>200</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4">
         <v>0.01</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="8">
         <v>1.7724</v>
       </c>
-      <c r="J10" s="15">
+      <c r="K10" s="9">
         <v>1.3312999999999999</v>
       </c>
-      <c r="K10" s="16">
+      <c r="L10" s="10">
         <v>1.0119</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="7">
+    <row r="11" spans="1:14">
+      <c r="A11" s="2">
         <v>20</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="3">
         <v>512</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="4">
         <v>0.01</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="8">
         <v>1.7856000000000001</v>
       </c>
-      <c r="J11" s="15">
+      <c r="K11" s="9">
         <v>1.3363</v>
       </c>
-      <c r="K11" s="16">
+      <c r="L11" s="10">
         <v>1.0248999999999999</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7">
+    <row r="12" spans="1:14">
+      <c r="A12" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="3">
         <v>100</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="4">
         <v>0.01</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="8">
         <v>1.7786999999999999</v>
       </c>
-      <c r="J12" s="15">
+      <c r="K12" s="9">
         <v>1.3337000000000001</v>
       </c>
-      <c r="K12" s="16">
+      <c r="L12" s="10">
         <v>1.0147999999999999</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="7">
+    <row r="13" spans="1:14">
+      <c r="A13" s="2">
         <v>20</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="3">
         <v>200</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="4">
         <v>0.01</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="8">
         <v>1.8954</v>
       </c>
-      <c r="J13" s="15">
+      <c r="K13" s="9">
         <v>1.3767</v>
       </c>
-      <c r="K13" s="16">
+      <c r="L13" s="10">
         <v>1.0627</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="7">
+    <row r="14" spans="1:14">
+      <c r="A14" s="2">
         <v>20</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="3">
         <v>200</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="4">
         <v>0.01</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="8">
         <v>1.8129</v>
       </c>
-      <c r="J14" s="15">
+      <c r="K14" s="9">
         <v>1.3464</v>
       </c>
-      <c r="K14" s="16">
+      <c r="L14" s="10">
         <v>1.0319</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="7">
+    <row r="15" spans="1:14">
+      <c r="A15" s="2">
         <v>16</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="3">
         <v>200</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>0.01</v>
       </c>
-      <c r="I15" s="14">
-        <v>1.7484999999999999</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1.3223</v>
-      </c>
-      <c r="K15" s="16">
-        <v>1.0104</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="I15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="22">
+        <v>1.7554000000000001</v>
+      </c>
+      <c r="K15" s="23">
+        <v>1.3249</v>
+      </c>
+      <c r="L15" s="10">
+        <v>1.0152000000000001</v>
+      </c>
+      <c r="N15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="7">
+    <row r="16" spans="1:14">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="3">
         <v>200</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="4">
         <v>0.01</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
-      <c r="M16" t="s">
+      <c r="I16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1.8483000000000001</v>
+      </c>
+      <c r="K16" s="9">
+        <v>1.3594999999999999</v>
+      </c>
+      <c r="L16" s="10">
+        <v>1.0414000000000001</v>
+      </c>
+      <c r="N16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>200</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.8545</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1.3604000000000001</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1.0517000000000001</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>200</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2.2702</v>
+      </c>
+      <c r="K18" s="9">
+        <v>1.5066999999999999</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1.1960999999999999</v>
+      </c>
+      <c r="N18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>200</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1.7673000000000001</v>
+      </c>
+      <c r="K19" s="9">
+        <v>1.3293999999999999</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1.0188999999999999</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="21">
+        <v>2.3616999999999999</v>
+      </c>
+      <c r="K20" s="9">
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1.2033</v>
+      </c>
+      <c r="N20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3">
+        <v>200</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="24">
+        <v>1.7415</v>
+      </c>
+      <c r="K21" s="25">
+        <v>1.3197000000000001</v>
+      </c>
+      <c r="L21" s="24">
+        <v>1.0076000000000001</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
